--- a/Astronomy/ROAST/Collected-Results-HD24355.xlsx
+++ b/Astronomy/ROAST/Collected-Results-HD24355.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jromeo/Documents/Research/Astronomy/roAp-Gillam/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Personal\Astronomy\ROAST\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F726EA4F-754E-C940-9758-3F0A0B89E74A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC1ACBE7-515E-4E18-8138-55A0DADE48D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{1DFE3826-3F55-644B-9ABD-5235640D5E82}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="21828" windowHeight="17376" xr2:uid="{1DFE3826-3F55-644B-9ABD-5235640D5E82}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029" iterateDelta="1E-4"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
   <si>
     <t>Frequency</t>
   </si>
@@ -69,6 +69,30 @@
   </si>
   <si>
     <t>TimeBase[ks]</t>
+  </si>
+  <si>
+    <t>Frequency #</t>
+  </si>
+  <si>
+    <t>F7</t>
+  </si>
+  <si>
+    <t>F1</t>
+  </si>
+  <si>
+    <t>F5</t>
+  </si>
+  <si>
+    <t>F3</t>
+  </si>
+  <si>
+    <t>F4</t>
+  </si>
+  <si>
+    <t>F2</t>
+  </si>
+  <si>
+    <t>F10</t>
   </si>
 </sst>
 </file>
@@ -76,8 +100,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="165" formatCode="0.00000"/>
-    <numFmt numFmtId="166" formatCode="0.000000"/>
+    <numFmt numFmtId="164" formatCode="0.00000"/>
+    <numFmt numFmtId="165" formatCode="0.000000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -104,7 +128,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -123,8 +147,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -147,21 +183,47 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -476,178 +538,473 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C8F1898-39FC-894F-8282-415D614940D7}">
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="3" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.83203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.1640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.8984375" customWidth="1"/>
+    <col min="2" max="2" width="14.69921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.69921875" customWidth="1"/>
+    <col min="4" max="4" width="14.69921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.19921875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.19921875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.296875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A2" s="10">
         <f>1</f>
         <v>1</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="2">
         <v>2459584.5755870002</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="2">
         <v>2459584.7180989999</v>
       </c>
-      <c r="D2" s="5">
+      <c r="E2" s="3">
         <v>9.8742800000000006E-2</v>
       </c>
-      <c r="E2" s="5">
+      <c r="F2" s="3">
         <v>2.4161500000000002E-3</v>
       </c>
-      <c r="F2" s="5">
+      <c r="G2" s="3">
         <v>1.1098999999999999E-2</v>
       </c>
-      <c r="G2" s="5">
+      <c r="H2" s="3">
         <v>1.2030000000000001E-3</v>
       </c>
-      <c r="H2" s="5">
+      <c r="I2" s="3">
         <v>0.55359999999999998</v>
       </c>
-      <c r="I2" s="5">
+      <c r="J2" s="3">
         <v>1.7250000000000001E-2</v>
       </c>
-      <c r="J2" s="5">
+      <c r="K2" s="3">
         <v>10</v>
       </c>
-      <c r="K2" s="5">
+      <c r="L2" s="3">
         <v>10422</v>
       </c>
-      <c r="L2" s="6">
+      <c r="M2" s="4">
         <v>24.736319999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" s="3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3" s="10">
         <f>A2+1</f>
         <v>2</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="2">
         <v>2459200.6409470001</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="2">
         <v>2459200.7093691998</v>
       </c>
-      <c r="D3" s="5">
+      <c r="E3" s="3">
         <v>0.1058108</v>
       </c>
-      <c r="E3" s="5">
+      <c r="F3" s="3">
         <v>1.32132E-3</v>
       </c>
-      <c r="F3" s="5">
+      <c r="G3" s="3">
         <v>7.2439999999999996E-3</v>
       </c>
-      <c r="G3" s="5">
+      <c r="H3" s="3">
         <v>2.0599999999999999E-4</v>
       </c>
-      <c r="H3" s="5">
+      <c r="I3" s="3">
         <v>0.23269999999999999</v>
       </c>
-      <c r="I3" s="5">
+      <c r="J3" s="3">
         <v>4.5199999999999997E-3</v>
       </c>
-      <c r="J3" s="5">
+      <c r="K3" s="3">
         <v>5</v>
       </c>
-      <c r="K3" s="5">
+      <c r="L3" s="3">
         <v>121620</v>
       </c>
-      <c r="L3" s="5">
+      <c r="M3" s="3">
         <v>11.8615104</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" s="10">
         <f>A3+1</f>
         <v>3</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="2">
         <v>2549582.618514</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="2">
         <v>2459582.7369619999</v>
       </c>
-      <c r="D4" s="5">
+      <c r="E4" s="3">
         <v>8.8275599999999996E-2</v>
       </c>
-      <c r="E4" s="7">
+      <c r="F4" s="5">
         <v>2.34E-5</v>
       </c>
-      <c r="F4" s="5">
+      <c r="G4" s="3">
         <v>1.3680000000000001E-3</v>
       </c>
-      <c r="G4" s="5">
+      <c r="H4" s="3">
         <v>3.01E-4</v>
       </c>
-      <c r="H4" s="5">
+      <c r="I4" s="3">
         <v>0.61060000000000003</v>
       </c>
-      <c r="I4" s="5">
+      <c r="J4" s="3">
         <v>1.3999999999999999E-4</v>
       </c>
-      <c r="J4" s="5">
+      <c r="K4" s="3">
         <v>15</v>
       </c>
-      <c r="K4" s="5">
+      <c r="L4" s="3">
         <v>10222</v>
       </c>
-      <c r="L4" s="5">
+      <c r="M4" s="3">
         <v>19.287742999999999</v>
       </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5" s="10">
+        <f>A4+1</f>
+        <v>4</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="8">
+        <v>0.1257422</v>
+      </c>
+      <c r="F5" s="3"/>
+      <c r="G5" s="8">
+        <v>5.5590000000000001E-4</v>
+      </c>
+      <c r="H5" s="3"/>
+      <c r="I5" s="8">
+        <v>0.83089999999999997</v>
+      </c>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="8">
+        <v>10322</v>
+      </c>
+      <c r="M5" s="3"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6" s="10">
+        <f>A5+1</f>
+        <v>5</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="8">
+        <v>7.5629799999999997E-2</v>
+      </c>
+      <c r="F6" s="3"/>
+      <c r="G6" s="8">
+        <v>0.16500970000000001</v>
+      </c>
+      <c r="H6" s="3"/>
+      <c r="I6" s="8">
+        <v>0.92579999999999996</v>
+      </c>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="8">
+        <v>112721</v>
+      </c>
+      <c r="M6" s="3"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7" s="10">
+        <f>A6+1</f>
+        <v>6</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="8">
+        <v>7.5852290000000003E-2</v>
+      </c>
+      <c r="F7" s="3"/>
+      <c r="G7" s="8">
+        <v>0.16465959999999999</v>
+      </c>
+      <c r="H7" s="3"/>
+      <c r="I7" s="8">
+        <v>0.4214</v>
+      </c>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="8">
+        <v>112721</v>
+      </c>
+      <c r="M7" s="3"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8" s="11">
+        <f>1</f>
+        <v>1</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3">
+        <v>2.5977049999999999</v>
+      </c>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3">
+        <v>3.0379999999999999E-3</v>
+      </c>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3">
+        <v>2.35E-2</v>
+      </c>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="8">
+        <v>121420</v>
+      </c>
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A9" s="12">
+        <f>A8+1</f>
+        <v>2</v>
+      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3">
+        <v>2.6562739999999998</v>
+      </c>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3">
+        <v>6.4700000000000001E-4</v>
+      </c>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3">
+        <v>0.8075</v>
+      </c>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="8">
+        <v>121520</v>
+      </c>
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A10" s="12">
+        <f t="shared" ref="A10:A14" si="0">A9+1</f>
+        <v>3</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3">
+        <v>2.5966390000000001</v>
+      </c>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3">
+        <v>5.463E-3</v>
+      </c>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3">
+        <v>0.26700000000000002</v>
+      </c>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="8">
+        <v>121620</v>
+      </c>
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A11" s="12">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3">
+        <v>2.5965180000000001</v>
+      </c>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3">
+        <v>2.8509999999999998E-3</v>
+      </c>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3">
+        <v>0.74739999999999995</v>
+      </c>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="8">
+        <v>112721</v>
+      </c>
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A12" s="12">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3">
+        <v>2.595621</v>
+      </c>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3">
+        <v>2.7720000000000002E-3</v>
+      </c>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3">
+        <v>0.21590000000000001</v>
+      </c>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="8">
+        <v>10222</v>
+      </c>
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A13" s="12">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3">
+        <v>2.5913469999999998</v>
+      </c>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3">
+        <v>1.818E-3</v>
+      </c>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3">
+        <v>9.4E-2</v>
+      </c>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="8">
+        <v>10322</v>
+      </c>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A14" s="12">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3">
+        <v>3.0797460000000001</v>
+      </c>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3">
+        <v>5.6849999999999999E-3</v>
+      </c>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3">
+        <v>0.72499999999999998</v>
+      </c>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="8">
+        <v>10422</v>
+      </c>
+      <c r="M14" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
